--- a/output/SOLANA_25423215000146.xlsx
+++ b/output/SOLANA_25423215000146.xlsx
@@ -933,10 +933,10 @@
         <v>44165</v>
       </c>
       <c r="B50">
-        <v>0.7713514380000002</v>
+        <v>0.763380814</v>
       </c>
       <c r="C50">
-        <v>0.01215878415728588</v>
+        <v>0.007604331029721356</v>
       </c>
     </row>
   </sheetData>

--- a/output/SOLANA_25423215000146.xlsx
+++ b/output/SOLANA_25423215000146.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SOLANA EQUITY HEDGE FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,557 +383,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42704</v>
       </c>
       <c r="B2">
-        <v>0.02112407700000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42735</v>
       </c>
       <c r="B3">
-        <v>0.06612583900000013</v>
-      </c>
-      <c r="C3">
         <v>0.04407080688197307</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42766</v>
       </c>
       <c r="B4">
-        <v>0.1275914659999999</v>
-      </c>
-      <c r="C4">
         <v>0.05765325700918478</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42794</v>
       </c>
       <c r="B5">
-        <v>0.151562497</v>
-      </c>
-      <c r="C5">
         <v>0.02125861335669255</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42825</v>
       </c>
       <c r="B6">
-        <v>0.1535029880000001</v>
-      </c>
-      <c r="C6">
         <v>0.001685093952829675</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42855</v>
       </c>
       <c r="B7">
-        <v>0.162275376</v>
-      </c>
-      <c r="C7">
         <v>0.007604998072185287</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42886</v>
       </c>
       <c r="B8">
-        <v>0.151057663</v>
-      </c>
-      <c r="C8">
         <v>-0.009651510503996041</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42916</v>
       </c>
       <c r="B9">
-        <v>0.1887783169999999</v>
-      </c>
-      <c r="C9">
         <v>0.03277042950366926</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42947</v>
       </c>
       <c r="B10">
-        <v>0.2220100540000001</v>
-      </c>
-      <c r="C10">
         <v>0.02795452821167177</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42978</v>
       </c>
       <c r="B11">
-        <v>0.2454318520000001</v>
-      </c>
-      <c r="C11">
         <v>0.0191666164474944</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43008</v>
       </c>
       <c r="B12">
-        <v>0.318181528</v>
-      </c>
-      <c r="C12">
         <v>0.05841321296157109</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43039</v>
       </c>
       <c r="B13">
-        <v>0.323286626</v>
-      </c>
-      <c r="C13">
         <v>0.003872833818074906</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43069</v>
       </c>
       <c r="B14">
-        <v>0.2762053579999999</v>
-      </c>
-      <c r="C14">
         <v>-0.03557904015271152</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43100</v>
       </c>
       <c r="B15">
-        <v>0.300573939</v>
-      </c>
-      <c r="C15">
         <v>0.01909456095544781</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43131</v>
       </c>
       <c r="B16">
-        <v>0.3202562920000001</v>
-      </c>
-      <c r="C16">
         <v>0.01513359018644778</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43159</v>
       </c>
       <c r="B17">
-        <v>0.3590010050000001</v>
-      </c>
-      <c r="C17">
         <v>0.0293463573964925</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43190</v>
       </c>
       <c r="B18">
-        <v>0.386371899</v>
-      </c>
-      <c r="C18">
         <v>0.0201404516253465</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43220</v>
       </c>
       <c r="B19">
-        <v>0.4359110580000001</v>
-      </c>
-      <c r="C19">
         <v>0.03573295090280837</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43251</v>
       </c>
       <c r="B20">
-        <v>0.4352269190000002</v>
-      </c>
-      <c r="C20">
         <v>-0.0004764494264378749</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43281</v>
       </c>
       <c r="B21">
-        <v>0.4488179360000002</v>
-      </c>
-      <c r="C21">
         <v>0.009469594542909965</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43312</v>
       </c>
       <c r="B22">
-        <v>0.474831142</v>
-      </c>
-      <c r="C22">
         <v>0.01795477910207199</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43343</v>
       </c>
       <c r="B23">
-        <v>0.465913856</v>
-      </c>
-      <c r="C23">
         <v>-0.006046309808665495</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43373</v>
       </c>
       <c r="B24">
-        <v>0.4699500349999999</v>
-      </c>
-      <c r="C24">
         <v>0.002753353468540887</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43404</v>
       </c>
       <c r="B25">
-        <v>0.4465984889999999</v>
-      </c>
-      <c r="C25">
         <v>-0.0158859454022191</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43434</v>
       </c>
       <c r="B26">
-        <v>0.4372179629999999</v>
-      </c>
-      <c r="C26">
         <v>-0.006484540161855512</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43465</v>
       </c>
       <c r="B27">
-        <v>0.475302541</v>
-      </c>
-      <c r="C27">
         <v>0.02649881853724101</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43496</v>
       </c>
       <c r="B28">
-        <v>0.4967918420000002</v>
-      </c>
-      <c r="C28">
         <v>0.01456602995168299</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43524</v>
       </c>
       <c r="B29">
-        <v>0.5164600609999999</v>
-      </c>
-      <c r="C29">
         <v>0.01314024999877028</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43555</v>
       </c>
       <c r="B30">
-        <v>0.5141766430000001</v>
-      </c>
-      <c r="C30">
         <v>-0.001505755448972357</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43585</v>
       </c>
       <c r="B31">
-        <v>0.494339138</v>
-      </c>
-      <c r="C31">
         <v>-0.01310118280565775</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43616</v>
       </c>
       <c r="B32">
-        <v>0.5457174760000001</v>
-      </c>
-      <c r="C32">
         <v>0.03438197976181234</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43646</v>
       </c>
       <c r="B33">
-        <v>0.543292793</v>
-      </c>
-      <c r="C33">
         <v>-0.001568645653327705</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43677</v>
       </c>
       <c r="B34">
-        <v>0.556677163</v>
-      </c>
-      <c r="C34">
         <v>0.008672605782070741</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43708</v>
       </c>
       <c r="B35">
-        <v>0.616075868</v>
-      </c>
-      <c r="C35">
         <v>0.03815736904980849</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43738</v>
       </c>
       <c r="B36">
-        <v>0.6020122480000001</v>
-      </c>
-      <c r="C36">
         <v>-0.008702326591513709</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43769</v>
       </c>
       <c r="B37">
-        <v>0.6358032470000001</v>
-      </c>
-      <c r="C37">
         <v>0.02109284685069412</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43799</v>
       </c>
       <c r="B38">
-        <v>0.658312132</v>
-      </c>
-      <c r="C38">
         <v>0.01376014202275266</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43830</v>
       </c>
       <c r="B39">
-        <v>0.70383715</v>
-      </c>
-      <c r="C39">
         <v>0.02745262313500341</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43861</v>
       </c>
       <c r="B40">
-        <v>0.7434586560000001</v>
-      </c>
-      <c r="C40">
         <v>0.02325427990579976</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43890</v>
       </c>
       <c r="B41">
-        <v>0.7499083469999999</v>
-      </c>
-      <c r="C41">
         <v>0.003699365613175631</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43921</v>
       </c>
       <c r="B42">
-        <v>0.5991253589999999</v>
-      </c>
-      <c r="C42">
         <v>-0.08616622022433273</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43951</v>
       </c>
       <c r="B43">
-        <v>0.6731819540000001</v>
-      </c>
-      <c r="C43">
         <v>0.0463106876413435</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43982</v>
       </c>
       <c r="B44">
-        <v>0.686715529</v>
-      </c>
-      <c r="C44">
         <v>0.008088525559127424</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44012</v>
       </c>
       <c r="B45">
-        <v>0.7362796489999999</v>
-      </c>
-      <c r="C45">
         <v>0.02938499062102351</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44043</v>
       </c>
       <c r="B46">
-        <v>0.7717233939999999</v>
-      </c>
-      <c r="C46">
         <v>0.02041361541063602</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>44074</v>
       </c>
       <c r="B47">
-        <v>0.824193862</v>
-      </c>
-      <c r="C47">
         <v>0.02961549651468909</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44104</v>
       </c>
       <c r="B48">
-        <v>0.7743748719999999</v>
-      </c>
-      <c r="C48">
         <v>-0.02731014013246369</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44135</v>
       </c>
       <c r="B49">
-        <v>0.7500726819999999</v>
-      </c>
-      <c r="C49">
         <v>-0.01369619824057111</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44165</v>
       </c>
       <c r="B50">
-        <v>0.763380814</v>
-      </c>
-      <c r="C50">
-        <v>0.007604331029721356</v>
+        <v>-0.005113738470434503</v>
       </c>
     </row>
   </sheetData>
